--- a/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
+++ b/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,68 +506,278 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>W1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>W2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>W3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>EM1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EM2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>EM3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>X1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>X2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>X3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>X4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>X5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>X6</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>X7</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>X8</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Zeroes</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
+++ b/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,278 +506,68 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>R8</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>W1</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>EM1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>EM2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>EM1</t>
+          <t>EM3</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>EM2</t>
+          <t>X1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>EM3</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>X4</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X5</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>X4</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>X5</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>X6</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>X7</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>X8</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
           <t>Zeroes</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
+++ b/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,68 +506,468 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>R7</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>R8</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>W1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>W2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>W3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>EM1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EM2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>EM3</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>X1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>X2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>X3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>X4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>X5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>X6</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>X7</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>X8</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Zeroes</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
+++ b/Simone_Cavallero/Invaders_Realizations/Code/output/AC_n3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,130 +461,150 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>M6</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>R7</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>R8</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>W1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W5</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>EM1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>EM2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>EM3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>EM4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>EM5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>EM6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>X1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>X2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>X3</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>X4</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>X5</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>X6</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>X7</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>X8</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Zeroes</t>
         </is>
@@ -598,40 +618,40 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -640,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -652,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -684,290 +704,17 @@
       <c r="AE2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3</v>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
